--- a/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
@@ -812,7 +812,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>

--- a/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
@@ -812,7 +812,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>

--- a/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
@@ -812,7 +812,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" s="23" t="n"/>
       <c r="D28" s="7" t="n">
-        <v>25405.6</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="25">
@@ -921,7 +921,7 @@
       </c>
       <c r="C29" s="23" t="n"/>
       <c r="D29" s="9" t="n">
-        <v>16946.6</v>
+        <v>57191</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="25">
@@ -968,12 +968,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
@@ -812,7 +812,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>

--- a/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
@@ -812,7 +812,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -968,12 +968,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
@@ -812,7 +812,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -968,12 +968,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
@@ -812,7 +812,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -968,12 +968,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
+++ b/server/LISTAS/ma/TARUGO YESO DISMAY.xlsx
@@ -812,7 +812,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" s="23" t="n"/>
       <c r="D28" s="7" t="n">
-        <v>25405.6</v>
+        <v>47157</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="25">
@@ -921,7 +921,7 @@
       </c>
       <c r="C29" s="23" t="n"/>
       <c r="D29" s="9" t="n">
-        <v>16946.6</v>
+        <v>31460</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="25">
@@ -968,12 +968,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
